--- a/Лічильники/Таблиця споживання енергоносіїв 2022 листопад.xlsx
+++ b/Лічильники/Таблиця споживання енергоносіїв 2022 листопад.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
-    <sheet name="Аркуш2" sheetId="2" r:id="rId2"/>
+    <sheet name="І тиждень" sheetId="1" r:id="rId1"/>
+    <sheet name="ІІ тиждень" sheetId="2" r:id="rId2"/>
     <sheet name="Аркуш3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>Водопостачання м3</t>
   </si>
@@ -58,17 +58,20 @@
   </si>
   <si>
     <t>2022 р.</t>
+  </si>
+  <si>
+    <t>Таблиця споживання енергоносіїв за другий тиждень листопада 2022 р.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -138,14 +141,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -236,6 +242,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,6 +277,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -445,14 +453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
@@ -463,7 +471,7 @@
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -473,32 +481,32 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="44.25" customHeight="1">
+    <row r="6" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -513,7 +521,7 @@
       <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -529,7 +537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -555,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -568,7 +576,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -581,7 +589,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -594,7 +602,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -607,7 +615,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -620,7 +628,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -633,7 +641,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -646,7 +654,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -659,7 +667,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -672,7 +680,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -685,7 +693,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -698,7 +706,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -711,7 +719,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -724,7 +732,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -737,7 +745,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -750,7 +758,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -763,7 +771,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -776,7 +784,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -789,7 +797,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -815,24 +823,380 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="7">
+        <v>172</v>
+      </c>
+      <c r="H7" s="7">
+        <v>249</v>
+      </c>
+      <c r="I7" s="7">
+        <v>166</v>
+      </c>
+      <c r="J7" s="7">
+        <f>G7-I7</f>
+        <v>6</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Лічильники/Таблиця споживання енергоносіїв 2022 листопад.xlsx
+++ b/Лічильники/Таблиця споживання енергоносіїв 2022 листопад.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="І тиждень" sheetId="1" r:id="rId1"/>
     <sheet name="ІІ тиждень" sheetId="2" r:id="rId2"/>
-    <sheet name="Аркуш3" sheetId="3" r:id="rId3"/>
+    <sheet name="ІІІ тиждень" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
   <si>
     <t>Водопостачання м3</t>
   </si>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,12 +1192,363 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="11" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="7">
+        <v>235</v>
+      </c>
+      <c r="H7" s="7">
+        <v>249</v>
+      </c>
+      <c r="I7" s="7">
+        <v>93</v>
+      </c>
+      <c r="J7" s="7">
+        <f>G7-I7</f>
+        <v>142</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Лічильники/Таблиця споживання енергоносіїв 2022 листопад.xlsx
+++ b/Лічильники/Таблиця споживання енергоносіїв 2022 листопад.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="І тиждень" sheetId="1" r:id="rId1"/>
     <sheet name="ІІ тиждень" sheetId="2" r:id="rId2"/>
     <sheet name="ІІІ тиждень" sheetId="3" r:id="rId3"/>
+    <sheet name="ІV тиждень" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
   <si>
     <t>Водопостачання м3</t>
   </si>
@@ -61,6 +62,12 @@
   </si>
   <si>
     <t>Таблиця споживання енергоносіїв за другий тиждень листопада 2022 р.</t>
+  </si>
+  <si>
+    <t>Таблиця споживання енергоносіїв за третій тиждень листопада 2022 р.</t>
+  </si>
+  <si>
+    <t>Таблиця споживання енергоносіїв за четвертий тиждень листопада 2022 р.</t>
   </si>
 </sst>
 </file>
@@ -1194,19 +1201,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
     <col min="2" max="11" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C2" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -1551,4 +1558,367 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="11" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="7">
+        <v>268</v>
+      </c>
+      <c r="H7" s="7">
+        <v>319</v>
+      </c>
+      <c r="I7" s="7">
+        <v>153</v>
+      </c>
+      <c r="J7" s="7">
+        <f>G7-I7</f>
+        <v>115</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>